--- a/biology/Zoologie/Desmodontinae/Desmodontinae.xlsx
+++ b/biology/Zoologie/Desmodontinae/Desmodontinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les chauves-souris de la sous-famille des Desmodontinae sont appelées communément vampires  car elles se nourrissent de sang (hématophages). Il existe seulement trois espèces de chauves-souris vampires : le vampire commun (Desmodus rotundus), le vampire à pattes velues (Diphylla ecaudata) et le vampire à ailes blanches (Diaemus youngi). Ces trois espèces sont originaires des zones tropicales du continent américain, principalement du Mexique, du Chili, du Brésil et de l'Argentine. Contrairement à la croyance populaire, ces chauves-souris s'attaquent rarement à l'Homme : elles peuvent occasionnellement se nourrir de sang humain en raison de la fragmentation et de la perte de leur habitat, ou de l'absence de leurs proies habituelles[1]. Elles se nourrissent aussi de petits insectes comme les moustiques .
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chauves-souris de la sous-famille des Desmodontinae sont appelées communément vampires  car elles se nourrissent de sang (hématophages). Il existe seulement trois espèces de chauves-souris vampires : le vampire commun (Desmodus rotundus), le vampire à pattes velues (Diphylla ecaudata) et le vampire à ailes blanches (Diaemus youngi). Ces trois espèces sont originaires des zones tropicales du continent américain, principalement du Mexique, du Chili, du Brésil et de l'Argentine. Contrairement à la croyance populaire, ces chauves-souris s'attaquent rarement à l'Homme : elles peuvent occasionnellement se nourrir de sang humain en raison de la fragmentation et de la perte de leur habitat, ou de l'absence de leurs proies habituelles. Elles se nourrissent aussi de petits insectes comme les moustiques .
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'existence des chauve-souris vampire a été confirmée dès le XVIIe siècle[2],[3].
-En 1701, un dictionnaire continue de dire que ces chauves-souris sucent le sang des hommes la nuit, s'attachant au premier membre qu'elles trouvent découvert[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'existence des chauve-souris vampire a été confirmée dès le XVIIe siècle,.
+En 1701, un dictionnaire continue de dire que ces chauves-souris sucent le sang des hommes la nuit, s'attachant au premier membre qu'elles trouvent découvert.
 En 1770, Philippe Serane leur attribue la dénomination de Vampire. 
 « En voyageant dans cette partie, de l'Amérique, garantissez - vous des Vampires, espèce de Chauves-souris, sang-sues adroites, qui sucent le sang des hommes &amp; des animaux endormis, qu'ils rafraîchissent malicieusement en battant l'air de leurs ailes. »
-— Philippe Serane[5].</t>
+— Philippe Serane.</t>
         </is>
       </c>
     </row>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les trois espèces sont très différentes les unes des autres et c'est la raison pour laquelle elles ont été placées dans trois genres différents. Ces trois genres ont été initialement regroupés dans la famille des Desmodontidae, mais leur ressemblance avec d'autres chauves-souris de la famille de Phyllostomidae ont conduit la taxinomie moderne à envisager les Desmodontidae comme une sous-famille des Phyllostomidae. Le fait qu'il n'existe que trois espèces de chauves-souris vampires toutes regroupées dans une même région laisse à penser que l'évolution conduisant à une chauve-souris hématophage ne s'est produite qu'une seule fois et que les trois espèces doivent avoir un ancêtre commun.
 Contrairement aux chauves-souris frugivores, les vampires ont un museau court et conique, muni de capteur infrarouge. Il semble que cette fonctionnalité soit identique à celle trouvée chez certains serpents.
@@ -582,9 +598,11 @@
           <t>Référence cinématographique et culturelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Jean Painlevé a réalisé entre 1939 et 1945 un film documentaire sur cette chauve-souris, nommé Le Vampire. Le terme vernaculaire de « vampires », d'origine slave, date du XVIIIe siècle et provient des croyances populaires au sujet des morts-vivants[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jean Painlevé a réalisé entre 1939 et 1945 un film documentaire sur cette chauve-souris, nommé Le Vampire. Le terme vernaculaire de « vampires », d'origine slave, date du XVIIIe siècle et provient des croyances populaires au sujet des morts-vivants.</t>
         </is>
       </c>
     </row>
@@ -612,9 +630,11 @@
           <t>Genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (11 janvier 2016)[7], cette sous-famille comprend trois espèces, chacune dans un genre différent :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (11 janvier 2016), cette sous-famille comprend trois espèces, chacune dans un genre différent :
 Desmodus Wied-Neuwied, 1826
 Desmodus rotundus E. Geoffroy, 1810  -- vampire commun
 Diaemus Miller, 1906 
